--- a/Dự Án/BÁO GIÁ/Báo Giá DingTea (12-2019).xlsx
+++ b/Dự Án/BÁO GIÁ/Báo Giá DingTea (12-2019).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/van/Documents/Hành chính Jet Art/JETART/Dự Án/BÁO GIÁ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8ED97A5-DA43-C54D-8CC5-E686EF44ACAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E18F14E-19F5-A941-9C8A-E563F0E05C0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="119">
   <si>
     <r>
       <t xml:space="preserve">Khách hàng:    </t>
@@ -353,9 +353,6 @@
     <t>Cream Mousse Green Tea(A4, A3, Tivi 32 in, Tivi 40 in)</t>
   </si>
   <si>
-    <t>Chưa hoàn thành</t>
-  </si>
-  <si>
     <t>BÁO GIÁ DỊCH VỤ THIẾT KẾ DING TEA (12 -2019)</t>
   </si>
   <si>
@@ -402,6 +399,15 @@
   </si>
   <si>
     <t>background mua bản quyền</t>
+  </si>
+  <si>
+    <t>Stander món nóng</t>
+  </si>
+  <si>
+    <t>Banner Tết Dương Lịch MatCha đậu đỏ (A4 đứng - ngang, Tivi 32in, Tivi 40in )</t>
+  </si>
+  <si>
+    <t>Poster Khuyến Mãi Giáng Sinh (A1,A4,Tivi 32in, Tivi 40in, Bannner Quảng cáo Facebook)</t>
   </si>
 </sst>
 </file>
@@ -834,7 +840,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1082,36 +1088,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1142,6 +1118,99 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1647,10 +1716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F90EBFF-25C5-2C40-A5CB-D31602ACDFB3}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1661,7 +1730,7 @@
     <col min="4" max="4" width="13.1640625" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="25.83203125" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="115" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="105" customWidth="1"/>
     <col min="8" max="8" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1674,7 +1743,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="106"/>
+      <c r="G1" s="96"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1688,7 +1757,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="106"/>
+      <c r="G2" s="96"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1702,7 +1771,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="107"/>
+      <c r="G3" s="97"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1716,7 +1785,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="106"/>
+      <c r="G4" s="96"/>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1730,7 +1799,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="106"/>
+      <c r="G5" s="96"/>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1740,7 +1809,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="106"/>
+      <c r="G6" s="96"/>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1750,7 +1819,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="106"/>
+      <c r="G7" s="96"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1760,7 +1829,7 @@
       <c r="D8" s="75"/>
       <c r="E8" s="75"/>
       <c r="F8" s="75"/>
-      <c r="G8" s="108"/>
+      <c r="G8" s="98"/>
       <c r="H8" s="75"/>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1770,7 +1839,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="106"/>
+      <c r="G9" s="96"/>
       <c r="H9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1782,7 +1851,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="106"/>
+      <c r="G10" s="96"/>
       <c r="H10" s="7" t="s">
         <v>10</v>
       </c>
@@ -1794,7 +1863,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="106"/>
+      <c r="G11" s="96"/>
       <c r="H11" s="7" t="s">
         <v>11</v>
       </c>
@@ -1806,7 +1875,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="106"/>
+      <c r="G12" s="96"/>
       <c r="H12" s="7" t="s">
         <v>12</v>
       </c>
@@ -1818,7 +1887,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="106"/>
+      <c r="G13" s="96"/>
       <c r="H13" s="7" t="s">
         <v>13</v>
       </c>
@@ -1832,7 +1901,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="106"/>
+      <c r="G14" s="96"/>
       <c r="H14" s="78"/>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1844,7 +1913,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="106"/>
+      <c r="G15" s="96"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1854,20 +1923,20 @@
       <c r="D16" s="79"/>
       <c r="E16" s="79"/>
       <c r="F16" s="79"/>
-      <c r="G16" s="109"/>
+      <c r="G16" s="99"/>
       <c r="H16" s="79"/>
     </row>
     <row r="17" spans="1:8" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="96" t="s">
-        <v>101</v>
-      </c>
-      <c r="B17" s="97"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="98"/>
+      <c r="A17" s="106" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="108"/>
     </row>
     <row r="18" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
@@ -1876,7 +1945,7 @@
       <c r="D18" s="13"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="110"/>
+      <c r="G18" s="100"/>
       <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1899,7 +1968,7 @@
         <v>21</v>
       </c>
       <c r="G19" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H19" s="45" t="s">
         <v>22</v>
@@ -1910,7 +1979,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20" s="33">
         <v>1000000</v>
@@ -1925,8 +1994,8 @@
         <f>E20*C20</f>
         <v>1000000</v>
       </c>
-      <c r="G20" s="111" t="s">
-        <v>100</v>
+      <c r="G20" s="101" t="s">
+        <v>54</v>
       </c>
       <c r="H20" s="34"/>
     </row>
@@ -1935,7 +2004,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="95" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C21" s="33">
         <v>1000000</v>
@@ -1950,8 +2019,8 @@
         <f t="shared" ref="F21:F28" si="0">E21*C21</f>
         <v>1000000</v>
       </c>
-      <c r="G21" s="111" t="s">
-        <v>100</v>
+      <c r="G21" s="101" t="s">
+        <v>54</v>
       </c>
       <c r="H21" s="34"/>
     </row>
@@ -1960,7 +2029,7 @@
         <v>30</v>
       </c>
       <c r="B22" s="95" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22" s="33">
         <v>1000000</v>
@@ -1975,8 +2044,8 @@
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="G22" s="111" t="s">
-        <v>100</v>
+      <c r="G22" s="101" t="s">
+        <v>54</v>
       </c>
       <c r="H22" s="34"/>
     </row>
@@ -1985,7 +2054,7 @@
         <v>33</v>
       </c>
       <c r="B23" s="95" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C23" s="33">
         <v>1000000</v>
@@ -2000,8 +2069,8 @@
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="G23" s="111" t="s">
-        <v>100</v>
+      <c r="G23" s="101" t="s">
+        <v>54</v>
       </c>
       <c r="H23" s="34"/>
     </row>
@@ -2010,7 +2079,7 @@
         <v>36</v>
       </c>
       <c r="B24" s="92" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C24" s="33">
         <v>2000000</v>
@@ -2025,8 +2094,8 @@
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
-      <c r="G24" s="111" t="s">
-        <v>100</v>
+      <c r="G24" s="101" t="s">
+        <v>54</v>
       </c>
       <c r="H24" s="34"/>
     </row>
@@ -2035,7 +2104,7 @@
         <v>40</v>
       </c>
       <c r="B25" s="92" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="33">
         <v>2000000</v>
@@ -2050,8 +2119,8 @@
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
-      <c r="G25" s="111" t="s">
-        <v>100</v>
+      <c r="G25" s="101" t="s">
+        <v>54</v>
       </c>
       <c r="H25" s="34"/>
     </row>
@@ -2060,7 +2129,7 @@
         <v>43</v>
       </c>
       <c r="B26" s="92" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26" s="33">
         <v>2000000</v>
@@ -2075,11 +2144,11 @@
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
-      <c r="G26" s="111" t="s">
-        <v>100</v>
+      <c r="G26" s="101" t="s">
+        <v>54</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2087,7 +2156,7 @@
         <v>61</v>
       </c>
       <c r="B27" s="92" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="33">
         <v>2000000</v>
@@ -2102,11 +2171,11 @@
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
-      <c r="G27" s="111" t="s">
-        <v>100</v>
+      <c r="G27" s="101" t="s">
+        <v>54</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2114,7 +2183,7 @@
         <v>67</v>
       </c>
       <c r="B28" s="92" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C28" s="33">
         <v>2000000</v>
@@ -2129,11 +2198,11 @@
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
-      <c r="G28" s="111" t="s">
-        <v>100</v>
+      <c r="G28" s="101" t="s">
+        <v>54</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2141,7 +2210,7 @@
         <v>68</v>
       </c>
       <c r="B29" s="93" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" s="33">
         <v>2000000</v>
@@ -2156,11 +2225,11 @@
         <f>E29*C29</f>
         <v>2000000</v>
       </c>
-      <c r="G29" s="111" t="s">
-        <v>100</v>
+      <c r="G29" s="101" t="s">
+        <v>54</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2168,7 +2237,7 @@
         <v>69</v>
       </c>
       <c r="B30" s="93" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C30" s="33">
         <v>2000000</v>
@@ -2183,153 +2252,264 @@
         <f>E30*C30</f>
         <v>2000000</v>
       </c>
-      <c r="G30" s="111" t="s">
-        <v>100</v>
+      <c r="G30" s="101" t="s">
+        <v>54</v>
       </c>
       <c r="H30" s="34" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
         <v>70</v>
       </c>
       <c r="B31" s="94" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C31" s="33">
         <v>500000</v>
       </c>
       <c r="D31" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E31" s="53">
         <v>1</v>
       </c>
       <c r="F31" s="41">
-        <f t="shared" ref="F31" si="1">E31*C31</f>
+        <f t="shared" ref="F31:F36" si="1">E31*C31</f>
         <v>500000</v>
       </c>
-      <c r="G31" s="111" t="s">
-        <v>100</v>
+      <c r="G31" s="101" t="s">
+        <v>54</v>
       </c>
       <c r="H31" s="34"/>
     </row>
-    <row r="32" spans="1:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="99" t="s">
+    <row r="32" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="33">
+        <v>1500000</v>
+      </c>
+      <c r="D32" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="53">
+        <v>1</v>
+      </c>
+      <c r="F32" s="41">
+        <f t="shared" si="1"/>
+        <v>1500000</v>
+      </c>
+      <c r="G32" s="101" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="34"/>
+    </row>
+    <row r="33" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="116" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="131" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="120">
+        <v>2000000</v>
+      </c>
+      <c r="D33" s="123" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="126">
+        <v>1</v>
+      </c>
+      <c r="F33" s="134">
+        <f>E33*C33</f>
+        <v>2000000</v>
+      </c>
+      <c r="G33" s="120" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="129"/>
+    </row>
+    <row r="34" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="117"/>
+      <c r="B34" s="132"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="125"/>
+      <c r="F34" s="135"/>
+      <c r="G34" s="119"/>
+      <c r="H34" s="128"/>
+    </row>
+    <row r="35" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="116" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="131" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="120">
+        <v>2000000</v>
+      </c>
+      <c r="D35" s="123" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="126">
+        <v>1</v>
+      </c>
+      <c r="F35" s="134">
+        <f>E35*C35</f>
+        <v>2000000</v>
+      </c>
+      <c r="G35" s="120" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="129"/>
+    </row>
+    <row r="36" spans="1:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="118"/>
+      <c r="B36" s="133"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="136"/>
+      <c r="G36" s="121"/>
+      <c r="H36" s="130"/>
+    </row>
+    <row r="37" spans="1:8" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="100"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="73">
-        <f>SUM(F20:F31)</f>
-        <v>18500000</v>
-      </c>
-      <c r="G32" s="112"/>
-      <c r="H32" s="74"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="9"/>
-    </row>
-    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="80"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="82"/>
-    </row>
-    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="83" t="s">
+      <c r="B37" s="110"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="73">
+        <f>SUM(F20:F35)</f>
+        <v>24000000</v>
+      </c>
+      <c r="G37" s="102"/>
+      <c r="H37" s="74"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="80"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="82"/>
+    </row>
+    <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="102" t="s">
+      <c r="B40" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="102"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="102"/>
-      <c r="H35" s="102"/>
-    </row>
-    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="80"/>
-      <c r="B36" s="103" t="s">
+      <c r="C40" s="112"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="112"/>
+      <c r="H40" s="112"/>
+    </row>
+    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="80"/>
+      <c r="B41" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103"/>
-    </row>
-    <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="84"/>
-      <c r="B37" s="85" t="s">
+      <c r="C41" s="113"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="113"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="113"/>
+    </row>
+    <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="84"/>
+      <c r="B42" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="86"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="87"/>
-    </row>
-    <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="88" t="s">
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="87"/>
+    </row>
+    <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="89"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="90" t="s">
+      <c r="C43" s="89"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="G38" s="90"/>
-      <c r="H38" s="89"/>
-    </row>
-    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="91" t="s">
+      <c r="G43" s="90"/>
+      <c r="H43" s="89"/>
+    </row>
+    <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="106"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="79"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="109"/>
-      <c r="H40" s="79"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="79"/>
+      <c r="B45" s="79"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="20">
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
     <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
@@ -2535,15 +2715,15 @@
       <c r="G16" s="79"/>
     </row>
     <row r="17" spans="1:7" s="47" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="97"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="98"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="108"/>
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
@@ -2960,13 +3140,13 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="99" t="s">
+      <c r="A36" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="100"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="101"/>
+      <c r="B36" s="110"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="111"/>
       <c r="F36" s="73">
         <f>SUM(F20:F35)</f>
         <v>18900000</v>
@@ -2995,25 +3175,25 @@
       <c r="A39" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="102" t="s">
+      <c r="B39" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="102"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="102"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="102"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="112"/>
     </row>
     <row r="40" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="80"/>
-      <c r="B40" s="103" t="s">
+      <c r="B40" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
     </row>
     <row r="41" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="84"/>
@@ -3696,15 +3876,15 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" s="50" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="98"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="108"/>
     </row>
     <row r="16" spans="1:7" s="11" customFormat="1" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="12"/>
@@ -4037,13 +4217,13 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="51" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="99" t="s">
+      <c r="A31" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="100"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110"/>
       <c r="F31" s="48">
         <f>SUM(F18:F30)</f>
         <v>18700000</v>
@@ -4064,25 +4244,25 @@
       <c r="A34" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="105" t="s">
+      <c r="B34" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
     </row>
     <row r="35" spans="1:7" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="16"/>
-      <c r="B35" s="104" t="s">
+      <c r="B35" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="114"/>
     </row>
     <row r="36" spans="1:7" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="20" t="s">
@@ -4430,15 +4610,15 @@
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" s="47" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="97"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="98"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="108"/>
     </row>
     <row r="17" spans="1:7" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
@@ -4663,13 +4843,13 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="46" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="99" t="s">
+      <c r="A27" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="100"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="101"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="111"/>
       <c r="F27" s="73">
         <f>SUM(F19:F26)</f>
         <v>20900000</v>
@@ -4689,25 +4869,25 @@
       <c r="A29" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="105" t="s">
+      <c r="B29" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
     </row>
     <row r="30" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
-      <c r="B30" s="104" t="s">
+      <c r="B30" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
     </row>
     <row r="31" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
